--- a/templates/request_report_fixed.xlsx
+++ b/templates/request_report_fixed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12585"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Итоговые показатели</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>${table:t1.balance}</t>
-  </si>
-  <si>
-    <t>Powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>Дата снятия отчета: ${report_date}</t>
@@ -145,11 +142,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +281,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,16 +297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127841</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>848722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -319,21 +316,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="314325"/>
-          <a:ext cx="1790700" cy="371475"/>
+          <a:off x="232616" y="209550"/>
+          <a:ext cx="1091359" cy="1210672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -346,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +377,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -420,7 +411,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -455,10 +445,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,15 +620,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -657,49 +648,55 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="81" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -728,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -757,24 +754,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
@@ -783,7 +780,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
@@ -792,7 +789,7 @@
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
@@ -801,7 +798,7 @@
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -810,7 +807,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="10" t="s">
         <v>4</v>
       </c>
@@ -819,7 +816,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
@@ -828,7 +825,7 @@
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="10" t="s">
         <v>7</v>
       </c>
@@ -837,10 +834,8 @@
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J30" s="4" t="s">
-        <v>34</v>
-      </c>
+    <row r="30" spans="2:10">
+      <c r="J30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -848,11 +843,11 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A2:D4"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>

--- a/templates/request_report_fixed.xlsx
+++ b/templates/request_report_fixed.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Итоговые показатели</t>
   </si>
@@ -137,16 +137,41 @@
   </si>
   <si>
     <t>${payments_start_date}</t>
+  </si>
+  <si>
+    <t>Ожидаемая сумма</t>
+  </si>
+  <si>
+    <t>Отклонение</t>
+  </si>
+  <si>
+    <t>Оборот выполнения графика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разница в обороте </t>
+  </si>
+  <si>
+    <t>${table:t1.await_summ}</t>
+  </si>
+  <si>
+    <t>${table:t1.margin}</t>
+  </si>
+  <si>
+    <t>${table:t1.normal_turnover}</t>
+  </si>
+  <si>
+    <t>${table:t1.turnover_margin}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +222,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -236,10 +269,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,8 +313,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,10 +661,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K11" sqref="K11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,23 +675,23 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -663,19 +700,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="81" customHeight="1">
+    <row r="4" spans="1:14" ht="81" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
@@ -683,7 +720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -691,12 +728,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -724,8 +761,20 @@
       <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -753,13 +802,25 @@
       <c r="J12" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:10">
@@ -839,6 +900,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D4"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -847,7 +909,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
